--- a/doc/API.xlsx
+++ b/doc/API.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="152">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,19 +506,6 @@
     <rPh sb="2" eb="3">
       <t>ke'jian'xia'z</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考资料</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1469,10 +1456,6 @@
 userID : string ,
 courseID : string ,
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业编辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1655,23 +1638,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>ps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所有string中的换行符都要换成&lt;br&gt;
-所有和时间有关的string格式为mm/dd/yyyy</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>data={
 homeworkName : string ,
 homeworkContent : string ,
@@ -1740,6 +1706,201 @@
                srcOfPic : string ,
                content : string}]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作业编辑</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去掉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去掉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>postdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的换行符都要换成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有和时间有关的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mm/dd/yyyy</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考资料</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1859,13 +2020,7 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1876,7 +2031,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1887,6 +2045,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2174,676 +2335,686 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="114" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="3"/>
-    <col min="2" max="2" width="22.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24" style="6" customWidth="1"/>
-    <col min="4" max="4" width="56.375" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="20.625" style="3"/>
+    <col min="1" max="1" width="20.625" style="5"/>
+    <col min="2" max="2" width="22.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="45.625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="20.625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="10" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="169.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="D8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="5" t="s">
+    <row r="10" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="152.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" ht="169.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    <row r="19" spans="1:5" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="149.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="137.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="138" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="62.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" ht="289.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="D26" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="303.39999999999998" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="252.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="215.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="325.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="5" t="s">
+    <row r="33" spans="1:5" ht="198.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="156.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="152.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="D36" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="149.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="5" t="s">
+    <row r="39" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="137.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="5" t="s">
+    <row r="40" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="138" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="62.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" ht="289.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="5" t="s">
+    <row r="41" spans="1:5" ht="156.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="303.39999999999998" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="D42" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="252.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="215.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="5" t="s">
+    </row>
+    <row r="44" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" ht="207.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="151.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="325.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="D49" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="172.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="198.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="156.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="156.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:4" ht="207.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="151.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="172.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="52" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+      <c r="A52" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/doc/API.xlsx
+++ b/doc/API.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="155">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,20 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>postdata={
-userID : string
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postdata={
-name : string ,
-srcOfPic : string ,
-content : string
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/AddCourseintro/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,14 +194,6 @@
   </si>
   <si>
     <t>/api/AddTeacherintro/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postdata={
-name : string ,
-srcOfPic : string ,
-content : string
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -238,13 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>postdata={
-studentID : string ,
-classID : string
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/intoGradeHomework/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,19 +224,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/intoAddClass/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/intoClass/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postdata={
-name : string ,
-srcUrl : string ,
-content : string
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -814,22 +773,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发表内容</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>fa'biao'nei'r</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <sz val="12"/>
         <color theme="1"/>
@@ -1218,44 +1161,6 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>pi'gai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>新建班级</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进入</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>xin'jian'ban'j</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>jin'ru</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1387,36 +1292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>postdata={
-userID : string ,
-classID : string ,
-srcName : string ,                          srcUrl : string ,
-urlOfPic : string ,
-type : "OtherMaterial"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postdata={
-userID : string ,
-classID : string ,
-srcName : string ,                          srcUrl : string ,
-urlOfPic : string ,
-type : "MultiMedia"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postdata={
-userID : string ,
-classID : string ,
-srcName : string ,                          srcUrl : string ,
-urlOfPic : string ,
-type : "Courseware"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>data={
 classList : [{classID : string ,
               className : string ,
@@ -1441,24 +1316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>postdata={
-UserID : string ,
-title : string ,
-content : string ,
-time : string ,
-studentList : 
-[{studentID : string}]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postdata={
-userID : string ,
-courseID : string ,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/ShowHomeworkEdit/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1467,57 +1324,6 @@
 classList : [{classID : string ,
               className : string ,
               classTime : string}]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data={
-courseList : [{name : string ,
-               courseID : string}]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postdata={
-userID : string ,
-forumsID : string
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data={
-forumList : [{userName : string ,
-              content : string ,
-              time : string ,
-              url : string}]
-}
-ps: url is not necessary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postdata={
-userID : string ,
-title : string ,
-content : string ,
-forumsID : string ,
-areaID : string ,
-attachmentUrl : string
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postdata={
-userID : string ,
-areaID : string
-}
-ps:if areaID = allzero, it means that area is message board.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data={
-name : string ,
-question : string ,
-answer : string
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1548,16 +1354,6 @@
                srcOfPic : string ,
                content : strings}]
 }</t>
-  </si>
-  <si>
-    <t>postdata={
-userID : string ,
-classID : string ,
-srcName : string ,                          srcUrl : string ,
-urlOfPic : string ,
-type : "RefeMaterial"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>data={
@@ -1618,26 +1414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>postdata={
-userID : string ,
-name : string ,
-content : string ,
-DDL : string ,
-time : string ,
-classID : string ,
-attachmentUrl : string ,
-homeworkID : string ,
-}
-ps:if homeworkID is None, that means this homework is a new homework, else it is a edited homework.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postdata={
-homeworkID : string
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>data={
 homeworkName : string ,
 homeworkContent : string ,
@@ -1690,217 +1466,442 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>data={
+introList : [{name : string ,
+               srcOfPic : string ,
+               content : string}]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作业编辑</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去掉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去掉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>postdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的换行符都要换成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有和时间有关的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mm/dd/yyyy</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考资料</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>postdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>srcOfPic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变成img</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postdata={
+name : string ,
+img : file ,
+content : string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postdata={
+name : string ,
+img : file ,
+content : string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postdata={
+userID : string ,
+classID : string ,
+srcName : string ,                          srcFile : file ,
+type : "Courseware"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postdata={
+userID : string ,
+classID : string ,
+srcName : string ,                          srcFile : file ,
+type : "RefeMaterial"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postdata={
+userID : string ,
+classID : string ,
+srcName : string ,                          srcFile : file ,
+type : "MultiMedia"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postdata={
+userID : string ,
+classID : string ,
+srcName : string ,                          srcFile : file ,
+type : "OtherMaterial"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data={
+forumList : [{userName : string ,
+              content : string ,
+              time : string ,
+              url : string,
+              fileName: string}]
+}
+ps: url is not necessary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postdata={
+userID : string ,
+srcFile : file ,
+homeworkID : string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>postdata={
 teacherID : string ,
 studentID : string ,
 homeworkID : string ,
 grade : string ,
-remark : string ,
-time : string
+remark : string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postdata={
+homeworkID : string ,
+userID : string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postdata={
+userID : string ,
+name : string ,
+content : string ,
+DDL : string ,
+startTime : string ,
+classID : string ,
+docFile : file ,
+homeworkID : string ,
+}
+ps:if homeworkID is -1, that means this homework is a new homework, else it is a edited homework.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postdata={
+userID : string ,
+courseName : string ,
+classTime: string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postdata={
+studentList :[{
+studentID : string }],
+classID : string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postdata={
+userID : string ,
+content : string ,
+studentList : 
+[{studentID : string}]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postdata={
+userID : string ,
+areaID : string
+}
+ps:if areaID = -1, it means that area is message board.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表帖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/CreateForum/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postdata={
+userID : string ,
+title : string, 
+content : string,
+areaID : string,
+srcFile : file
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>data={
-introList : [{name : string ,
-               srcOfPic : string ,
-               content : string}]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>作业编辑</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>去掉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>title</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>去掉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>postdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>title</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中的换行符都要换成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所有和时间有关的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>mm/dd/yyyy</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考资料</t>
-    </r>
+result : "success" | "failed"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data={
+result : "success" | "failed"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postdata={
+userID : string ,
+forumID : string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复帖子</t>
+    <rPh sb="0" eb="1">
+      <t>fa'biao'nei'r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postdata={
+userID : string ,
+content : string ,
+forumID : string ,
+srcFile : file
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data={
+name : string ,
+question : string ,
+answer : string ,
+password : string
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2017,7 +2018,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2040,13 +2041,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2335,8 +2345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="114" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2351,7 +2361,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2362,21 +2372,21 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>146</v>
+      <c r="E1" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -2390,7 +2400,7 @@
     </row>
     <row r="4" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -2404,7 +2414,7 @@
     </row>
     <row r="5" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -2418,7 +2428,7 @@
     </row>
     <row r="6" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -2431,16 +2441,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="A7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="169.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -2449,15 +2459,15 @@
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -2470,109 +2480,112 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="A10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="A13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="A16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:5" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="152.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>28</v>
@@ -2580,27 +2593,27 @@
     </row>
     <row r="19" spans="1:5" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="149.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>28</v>
@@ -2608,27 +2621,27 @@
     </row>
     <row r="21" spans="1:5" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="137.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>28</v>
@@ -2636,43 +2649,43 @@
     </row>
     <row r="23" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="138" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="62.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="A25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="289.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
@@ -2681,91 +2694,91 @@
         <v>10</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="303.39999999999998" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="252.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="215.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="325.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>28</v>
@@ -2773,43 +2786,43 @@
     </row>
     <row r="33" spans="1:5" ht="198.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="156.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+      <c r="A35" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>16</v>
@@ -2818,32 +2831,32 @@
         <v>10</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>28</v>
@@ -2851,13 +2864,13 @@
     </row>
     <row r="39" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>28</v>
@@ -2865,13 +2878,13 @@
     </row>
     <row r="40" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>28</v>
@@ -2879,110 +2892,110 @@
     </row>
     <row r="41" spans="1:5" ht="156.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45" spans="1:5" ht="207.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
-        <v>81</v>
+      <c r="A43" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" ht="230.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="7" customFormat="1" ht="230.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="151.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="207.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="151.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>26</v>
@@ -2991,30 +3004,31 @@
         <v>10</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="172.15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="51" spans="1:4" ht="172.15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="52" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
+      <c r="A52" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3024,7 +3038,7 @@
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A43:D43"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A16:D16"/>

--- a/doc/API.xlsx
+++ b/doc/API.xlsx
@@ -2044,6 +2044,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2052,12 +2058,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2345,8 +2345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="114" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2377,12 +2377,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -2441,12 +2441,12 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:5" ht="169.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
@@ -2480,12 +2480,12 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -2520,12 +2520,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
@@ -2556,12 +2556,12 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:5" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
@@ -2676,12 +2676,12 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="62.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:5" ht="289.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
@@ -2813,12 +2813,12 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
@@ -2922,12 +2922,12 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:5" ht="230.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
@@ -2944,7 +2944,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="7" customFormat="1" ht="230.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="9" t="s">
         <v>146</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2972,7 +2972,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="151.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="10" t="s">
         <v>152</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2986,12 +2986,12 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -3023,12 +3023,12 @@
     </row>
     <row r="51" spans="1:4" ht="172.15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="52" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/doc/API.xlsx
+++ b/doc/API.xlsx
@@ -1436,15 +1436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>postdata={
-classID : string ,
-studentList :
-[{studentID : string}]
-group : string
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>data={
 classList : [{classID : string ,
               className : string ,
@@ -1819,23 +1810,6 @@
   </si>
   <si>
     <t>postdata={
-studentList :[{
-studentID : string }],
-classID : string
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postdata={
-userID : string ,
-content : string ,
-studentList : 
-[{studentID : string}]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postdata={
 userID : string ,
 areaID : string
 }
@@ -1901,6 +1875,31 @@
 question : string ,
 answer : string ,
 password : string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postdata={
+classID : string ,
+studentList :
+[string]
+group : string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postdata={
+studentList :[string ],
+classID : string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postdata={
+userID : string ,
+content : string ,
+studentList : 
+[string]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2345,8 +2344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:D48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="114" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2373,7 +2372,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -2462,7 +2461,7 @@
         <v>111</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
@@ -2495,10 +2494,10 @@
         <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -2510,13 +2509,13 @@
         <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2535,7 +2534,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>112</v>
@@ -2549,7 +2548,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>90</v>
@@ -2585,7 +2584,7 @@
         <v>93</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>28</v>
@@ -2593,7 +2592,7 @@
     </row>
     <row r="19" spans="1:5" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>95</v>
@@ -2613,7 +2612,7 @@
         <v>92</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>28</v>
@@ -2641,7 +2640,7 @@
         <v>92</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>28</v>
@@ -2669,7 +2668,7 @@
         <v>92</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>38</v>
@@ -2719,7 +2718,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>28</v>
@@ -2744,13 +2743,13 @@
     </row>
     <row r="30" spans="1:5" ht="215.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>117</v>
@@ -2778,7 +2777,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>28</v>
@@ -2806,7 +2805,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>106</v>
@@ -2831,7 +2830,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
@@ -2856,7 +2855,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>28</v>
@@ -2884,7 +2883,7 @@
         <v>19</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>28</v>
@@ -2898,13 +2897,13 @@
         <v>20</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
@@ -2915,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>28</v>
@@ -2937,24 +2936,24 @@
         <v>23</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="7" customFormat="1" ht="230.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="207.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2965,24 +2964,24 @@
         <v>24</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="151.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
@@ -3004,7 +3003,7 @@
         <v>10</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.15">
@@ -3024,7 +3023,7 @@
     <row r="51" spans="1:4" ht="172.15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="52" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>

--- a/doc/API.xlsx
+++ b/doc/API.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="155">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1372,19 +1372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data={
-homeworkName : string ,
-homeworkContent : stirng
-totalOfHomeworkSubmit : string ,
-totalOfUngradeHomeworkSubmit : string ,
-studentID : string ,
-studentName : string ,
-srcUrl : string ,
-srcName : string
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">data={
 classList : [{className : string ,
               teacherName : string ,
@@ -1483,6 +1470,9 @@
   </si>
   <si>
     <r>
+      <t>ps:</t>
+    </r>
+    <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
@@ -1490,7 +1480,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>去掉</t>
+      <t>所有</t>
     </r>
     <r>
       <rPr>
@@ -1499,7 +1489,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>data</t>
+      <t>string</t>
     </r>
     <r>
       <rPr>
@@ -1509,7 +1499,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>中的</t>
+      <t>中的换行符都要换成</t>
     </r>
     <r>
       <rPr>
@@ -1518,11 +1508,9 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>title</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve">&lt;br&gt;
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1531,7 +1519,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>去掉</t>
+      <t>所有和时间有关的</t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1528,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>postdata</t>
+      <t>string</t>
     </r>
     <r>
       <rPr>
@@ -1550,7 +1538,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>中的</t>
+      <t>格式为</t>
     </r>
     <r>
       <rPr>
@@ -1559,89 +1547,6 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>title</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中的换行符都要换成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所有和时间有关的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
       <t>mm/dd/yyyy</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1656,41 +1561,6 @@
         <charset val="134"/>
       </rPr>
       <t>参考资料</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>postdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>srcOfPic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>变成img</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1903,11 +1773,144 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>if event.type is CHECK, the event.body should contain such words:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你本次作业在全班排名前XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>", whole body should like this:"XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分，你本次的作业在全班排名前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>XX"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data={
+homeworkName : string ,
+homeworkContent : stirng
+totalOfHomeworkSubmit : string ,
+totalOfUngradeHomeworkSubmit : string ,
+studentID : string ,
+studentName : string ,
+srcUrl : string ,
+srcName : string ,
+studentList: [{
+    studentID : string ,
+    studentName : string ,
+    status : string}]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postdata={
+userID : string ,
+homeworkID : string ,
+studentID : string
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>update:postdata contains a new element:studentID, it means the data should contain this student's information. And data should contain a list : studentList, which contains all students' id, name and status in this homework.
+Ps:status contains "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>" "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未评改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>" "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已评改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2344,15 +2347,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="E46" activeCellId="1" sqref="E33 E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="114" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.625" style="5"/>
     <col min="2" max="2" width="22.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="56.375" style="4" customWidth="1"/>
     <col min="5" max="5" width="45.625" style="5" customWidth="1"/>
     <col min="6" max="16384" width="20.625" style="5"/>
@@ -2372,7 +2377,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -2460,9 +2465,6 @@
       <c r="D8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="9" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -2494,10 +2496,10 @@
         <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -2509,13 +2511,10 @@
         <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2534,7 +2533,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>112</v>
@@ -2548,7 +2547,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>90</v>
@@ -2584,7 +2583,7 @@
         <v>93</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>28</v>
@@ -2592,7 +2591,7 @@
     </row>
     <row r="19" spans="1:5" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>95</v>
@@ -2612,7 +2611,7 @@
         <v>92</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>28</v>
@@ -2640,7 +2639,7 @@
         <v>92</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>28</v>
@@ -2668,7 +2667,7 @@
         <v>92</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>38</v>
@@ -2693,7 +2692,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="303.39999999999998" customHeight="1" x14ac:dyDescent="0.15">
@@ -2709,6 +2708,9 @@
       <c r="D27" s="3" t="s">
         <v>113</v>
       </c>
+      <c r="E27" s="5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
@@ -2718,7 +2720,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>28</v>
@@ -2738,21 +2740,21 @@
         <v>39</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="215.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
@@ -2777,13 +2779,13 @@
         <v>14</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="198.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="261" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>87</v>
       </c>
@@ -2791,10 +2793,13 @@
         <v>41</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>114</v>
+        <v>152</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="156.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
@@ -2805,7 +2810,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>106</v>
@@ -2830,7 +2835,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
@@ -2844,7 +2849,7 @@
         <v>107</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
@@ -2855,7 +2860,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>28</v>
@@ -2883,7 +2888,7 @@
         <v>19</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>28</v>
@@ -2897,13 +2902,10 @@
         <v>20</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.15">
@@ -2914,7 +2916,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>28</v>
@@ -2936,24 +2938,24 @@
         <v>23</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="7" customFormat="1" ht="230.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="207.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -2964,24 +2966,24 @@
         <v>24</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="151.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
@@ -3003,7 +3005,7 @@
         <v>10</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.15">
@@ -3023,7 +3025,7 @@
     <row r="51" spans="1:4" ht="172.15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="52" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
